--- a/Bosa_Mensual.xlsx
+++ b/Bosa_Mensual.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.364</v>
+        <v>26.256</v>
       </c>
       <c r="C2">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.88</v>
+        <v>25.665</v>
       </c>
       <c r="C3">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.397</v>
+        <v>25.074</v>
       </c>
       <c r="C4">
-        <v>0.07199999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.913</v>
+        <v>24.483</v>
       </c>
       <c r="C5">
-        <v>0.098</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.43</v>
+        <v>23.892</v>
       </c>
       <c r="C6">
-        <v>0.111</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.946</v>
+        <v>23.301</v>
       </c>
       <c r="C7">
-        <v>0.203</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.463</v>
+        <v>22.711</v>
       </c>
       <c r="C8">
-        <v>0.242</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.979</v>
+        <v>22.12</v>
       </c>
       <c r="C9">
-        <v>0.275</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.496</v>
+        <v>21.529</v>
       </c>
       <c r="C10">
-        <v>0.315</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.012</v>
+        <v>20.938</v>
       </c>
       <c r="C11">
-        <v>0.347</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.529</v>
+        <v>20.347</v>
       </c>
       <c r="C12">
-        <v>0.38</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.045</v>
+        <v>19.756</v>
       </c>
       <c r="C13">
-        <v>0.505</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.562</v>
+        <v>19.165</v>
       </c>
       <c r="C14">
-        <v>0.642</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.078</v>
+        <v>18.574</v>
       </c>
       <c r="C15">
-        <v>0.727</v>
+        <v>1.166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.595</v>
+        <v>17.983</v>
       </c>
       <c r="C16">
-        <v>0.832</v>
+        <v>1.402</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.111</v>
+        <v>17.392</v>
       </c>
       <c r="C17">
-        <v>0.983</v>
+        <v>1.691</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.628</v>
+        <v>16.801</v>
       </c>
       <c r="C18">
-        <v>1.147</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.144</v>
+        <v>16.21</v>
       </c>
       <c r="C19">
-        <v>1.343</v>
+        <v>2.595</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.661</v>
+        <v>15.619</v>
       </c>
       <c r="C20">
-        <v>1.553</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.177</v>
+        <v>15.028</v>
       </c>
       <c r="C21">
-        <v>1.815</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.694</v>
+        <v>14.438</v>
       </c>
       <c r="C22">
-        <v>2.176</v>
+        <v>4.299</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.21</v>
+        <v>13.847</v>
       </c>
       <c r="C23">
-        <v>2.595</v>
+        <v>5.203</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.727</v>
+        <v>13.256</v>
       </c>
       <c r="C24">
-        <v>2.955</v>
+        <v>6.003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.243</v>
+        <v>12.665</v>
       </c>
       <c r="C25">
-        <v>3.329</v>
+        <v>6.861</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>14.76</v>
+        <v>12.074</v>
       </c>
       <c r="C26">
-        <v>3.899</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>14.276</v>
+        <v>11.483</v>
       </c>
       <c r="C27">
-        <v>4.482</v>
+        <v>8.912000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>13.793</v>
+        <v>10.892</v>
       </c>
       <c r="C28">
-        <v>5.249</v>
+        <v>10.183</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>13.309</v>
+        <v>10.301</v>
       </c>
       <c r="C29">
-        <v>5.917</v>
+        <v>11.737</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>12.826</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C30">
-        <v>6.678</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>12.342</v>
+        <v>9.119</v>
       </c>
       <c r="C31">
-        <v>7.484</v>
+        <v>15.983</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11.859</v>
+        <v>8.528</v>
       </c>
       <c r="C32">
-        <v>8.308999999999999</v>
+        <v>18.421</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.375</v>
+        <v>7.937</v>
       </c>
       <c r="C33">
-        <v>9.154999999999999</v>
+        <v>22.025</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10.892</v>
+        <v>7.346</v>
       </c>
       <c r="C34">
-        <v>10.183</v>
+        <v>25.806</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10.409</v>
+        <v>6.756</v>
       </c>
       <c r="C35">
-        <v>11.37</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.925000000000001</v>
+        <v>6.165</v>
       </c>
       <c r="C36">
-        <v>12.877</v>
+        <v>36.547</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.442</v>
+        <v>5.574</v>
       </c>
       <c r="C37">
-        <v>14.679</v>
+        <v>42.608</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.958</v>
+        <v>4.983</v>
       </c>
       <c r="C38">
-        <v>16.573</v>
+        <v>49.626</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.475</v>
+        <v>4.392</v>
       </c>
       <c r="C39">
-        <v>18.735</v>
+        <v>57.837</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.991</v>
+        <v>3.801</v>
       </c>
       <c r="C40">
-        <v>21.671</v>
+        <v>67.123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.508</v>
+        <v>3.21</v>
       </c>
       <c r="C41">
-        <v>24.784</v>
+        <v>77.883</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.024</v>
+        <v>2.619</v>
       </c>
       <c r="C42">
-        <v>28.394</v>
+        <v>84.869</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.541</v>
+        <v>2.028</v>
       </c>
       <c r="C43">
-        <v>32.772</v>
+        <v>89.29900000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.057</v>
+        <v>1.437</v>
       </c>
       <c r="C44">
-        <v>37.516</v>
+        <v>92.602</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.574</v>
+        <v>0.846</v>
       </c>
       <c r="C45">
-        <v>42.608</v>
+        <v>95.53700000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,119 +880,9 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.09</v>
+        <v>0.255</v>
       </c>
       <c r="C46">
-        <v>48.08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>4.607</v>
-      </c>
-      <c r="C47">
-        <v>54.954</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>4.123</v>
-      </c>
-      <c r="C48">
-        <v>61.855</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>3.64</v>
-      </c>
-      <c r="C49">
-        <v>70.459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>3.156</v>
-      </c>
-      <c r="C50">
-        <v>78.624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>2.673</v>
-      </c>
-      <c r="C51">
-        <v>84.502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>2.189</v>
-      </c>
-      <c r="C52">
-        <v>88.13200000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1.706</v>
-      </c>
-      <c r="C53">
-        <v>91.121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1.222</v>
-      </c>
-      <c r="C54">
-        <v>93.801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0.739</v>
-      </c>
-      <c r="C55">
-        <v>96.21899999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0.255</v>
-      </c>
-      <c r="C56">
         <v>100</v>
       </c>
     </row>
